--- a/data/trans_dic/P1423_2016_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1423_2016_2023-Provincia-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01780698703399153</v>
+        <v>0.01848393269786541</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.005889093360159772</v>
+        <v>0.007269884223794165</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05594440723278288</v>
+        <v>0.05585190444163515</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02417116123296716</v>
+        <v>0.02540742433056501</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04285196080658316</v>
+        <v>0.04459318334430251</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01846190923325882</v>
+        <v>0.01909741034187794</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06355449117067821</v>
+        <v>0.06313412626881851</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03346628486311023</v>
+        <v>0.03398531976223526</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1275431534364579</v>
+        <v>0.1335850449508634</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05483196604138022</v>
+        <v>0.05728805230448124</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08506053440446433</v>
+        <v>0.08478102283438442</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03708137749704857</v>
+        <v>0.03843632688606242</v>
       </c>
     </row>
     <row r="7">
@@ -694,7 +694,7 @@
         <v>0.01237706882210356</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05541149526851565</v>
+        <v>0.05541149526851566</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.04816334863255608</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004283753807701564</v>
+        <v>0.004647292422879403</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03715370869181817</v>
+        <v>0.03719980340183093</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03273061442924226</v>
+        <v>0.03214035204435865</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08887210640895507</v>
+        <v>0.08727941476048344</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02112479505188155</v>
+        <v>0.02183696364601427</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06791510583669159</v>
+        <v>0.06718650969797732</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02516810948362561</v>
+        <v>0.02605258384784894</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08084942962025733</v>
+        <v>0.08089876565477802</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07030312287802962</v>
+        <v>0.07257023029529766</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1321132647136126</v>
+        <v>0.134416943968061</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04273344160547118</v>
+        <v>0.04372618618057892</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09914469385782301</v>
+        <v>0.09985518317736776</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>0.02883669109722498</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.09297204205989297</v>
+        <v>0.09297204205989296</v>
       </c>
     </row>
     <row r="11">
@@ -802,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0526360046012115</v>
+        <v>0.05353692318466961</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03103384584303409</v>
+        <v>0.03185485931368685</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08234189307334537</v>
+        <v>0.08405226834695334</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01795951017572908</v>
+        <v>0.01768056205146867</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07650500815513672</v>
+        <v>0.07367161032321275</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02165550245711004</v>
+        <v>0.01964362702606277</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1114050396907188</v>
+        <v>0.1144122109020192</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.084025213604227</v>
+        <v>0.08362026852810855</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1319820788651472</v>
+        <v>0.1331478862721592</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04505185136337035</v>
+        <v>0.04475916469551278</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1140399618577424</v>
+        <v>0.1119613014622197</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>0.01968144211661309</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04983000250615511</v>
+        <v>0.0498300025061551</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.04756005947045653</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.008173063671610071</v>
+        <v>0.008427931377345536</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02922970542005507</v>
+        <v>0.02911597586210718</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02851112055282372</v>
+        <v>0.02758894788621948</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04087576789523653</v>
+        <v>0.04038437755079316</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02281866692602784</v>
+        <v>0.0227925024494858</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04062691626815208</v>
+        <v>0.03962920317905103</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04218285894618327</v>
+        <v>0.03767917582127936</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08030672056674976</v>
+        <v>0.08191482842365089</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07397679581413222</v>
+        <v>0.07320118906683798</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07593131893449845</v>
+        <v>0.07534258249432449</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0482778401794535</v>
+        <v>0.05160527370649404</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07230389243767416</v>
+        <v>0.07264017470762581</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>0.1005650147086637</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.04558378804825545</v>
+        <v>0.04558378804825544</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.06897187128333943</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01757810457161279</v>
+        <v>0.01455505334450849</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.005461175563494796</v>
+        <v>0.005385571230372315</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06290289379417929</v>
+        <v>0.06366618921852302</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03013246743063719</v>
+        <v>0.03063284990973862</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04506738590723545</v>
+        <v>0.04736285553134186</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02165926340892309</v>
+        <v>0.02174410239496623</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06762337390966038</v>
+        <v>0.06946600201274088</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03626162942481018</v>
+        <v>0.03462169991345709</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.144237549595841</v>
+        <v>0.1443177378504583</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06503976597099294</v>
+        <v>0.06641330332962207</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.09616386351736915</v>
+        <v>0.09580384559354564</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04528342112629203</v>
+        <v>0.04506403473952116</v>
       </c>
     </row>
     <row r="19">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003187399461965741</v>
+        <v>0.004297644856597956</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05179234672656732</v>
+        <v>0.05128844788480906</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.06023605598091961</v>
+        <v>0.06176165728949241</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.0631100369627168</v>
+        <v>0.06313672027914369</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.0379059101343014</v>
+        <v>0.03829348819748576</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.06418187637463833</v>
+        <v>0.06316380369745771</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0371297573558247</v>
+        <v>0.03640286162626585</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.104312818705431</v>
+        <v>0.1086366444346991</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1327474561152979</v>
+        <v>0.1340366311932096</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1121355112002617</v>
+        <v>0.1139898932112038</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.07747307347026816</v>
+        <v>0.0821957642398979</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.09965613922207074</v>
+        <v>0.09883645001198239</v>
       </c>
     </row>
     <row r="22">
@@ -1116,7 +1116,7 @@
         <v>0.04082059876018534</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.07848912733737337</v>
+        <v>0.07848912733737336</v>
       </c>
     </row>
     <row r="23">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.008508280233993261</v>
+        <v>0.008420968869473881</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04344207813905733</v>
+        <v>0.04187239809413609</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04568812029437923</v>
+        <v>0.04615121781680909</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07723208137538708</v>
+        <v>0.07671128797282364</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03082735128488434</v>
+        <v>0.03153040817995811</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06576251348277244</v>
+        <v>0.06545330904376451</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0330195371324262</v>
+        <v>0.03101995552934083</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0854111100614392</v>
+        <v>0.08346626900732063</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.08520916899393116</v>
+        <v>0.08352644365782393</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1140355472784146</v>
+        <v>0.1136865116482594</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05418199763464322</v>
+        <v>0.05319059773687835</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.0938547566126138</v>
+        <v>0.09246808618854709</v>
       </c>
     </row>
     <row r="25">
@@ -1192,13 +1192,13 @@
         <v>0.07842007022377101</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.08155844148486842</v>
+        <v>0.08155844148486843</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.05452576513742024</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.05688608374769959</v>
+        <v>0.05688608374769961</v>
       </c>
     </row>
     <row r="26">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01841845273693405</v>
+        <v>0.01929951194109475</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02086636521517943</v>
+        <v>0.02018669793443036</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.05841595820104176</v>
+        <v>0.05960097592672139</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.06700855338618082</v>
+        <v>0.06595292684638154</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04315575376877528</v>
+        <v>0.04266813253702534</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04676637077853873</v>
+        <v>0.04674681127186691</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04162045155568898</v>
+        <v>0.04243097475264567</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04401600170981301</v>
+        <v>0.04626484360104786</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1012841766884854</v>
+        <v>0.103242584640983</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.09959136272661606</v>
+        <v>0.09864662833093849</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.06688134231113931</v>
+        <v>0.06712910887794221</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.06686013149853734</v>
+        <v>0.06700985794431882</v>
       </c>
     </row>
     <row r="28">
@@ -1274,13 +1274,13 @@
         <v>0.06860020790708224</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.08221457216536378</v>
+        <v>0.08221457216536376</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.04521217020315022</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.06560351299113855</v>
+        <v>0.06560351299113852</v>
       </c>
     </row>
     <row r="29">
@@ -1291,22 +1291,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01629192073501472</v>
+        <v>0.01634531138318632</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.04074628292079062</v>
+        <v>0.04095648008583515</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.06100156636478217</v>
+        <v>0.05979906100311071</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.0742371348432935</v>
+        <v>0.07578956337253714</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.0399552933412346</v>
+        <v>0.03994830298654171</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.06051054356348379</v>
+        <v>0.06032409851558618</v>
       </c>
     </row>
     <row r="30">
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.02605856242463973</v>
+        <v>0.02670850107493453</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.05616623059858272</v>
+        <v>0.05593684742709937</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.07832512666272341</v>
+        <v>0.07847076478627414</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.08943385355708398</v>
+        <v>0.09012148307418183</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.05060333198219224</v>
+        <v>0.05067060292882652</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.07106918517395236</v>
+        <v>0.07082913204365109</v>
       </c>
     </row>
     <row r="31">
@@ -1523,22 +1523,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5231</v>
+        <v>5430</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1878</v>
+        <v>2318</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>16151</v>
+        <v>16125</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7640</v>
+        <v>8030</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>24960</v>
+        <v>25974</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>11722</v>
+        <v>12125</v>
       </c>
     </row>
     <row r="7">
@@ -1549,22 +1549,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>18670</v>
+        <v>18546</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>10671</v>
+        <v>10836</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>36822</v>
+        <v>38566</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>17330</v>
+        <v>18107</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>49545</v>
+        <v>49382</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>23543</v>
+        <v>24403</v>
       </c>
     </row>
     <row r="8">
@@ -1631,22 +1631,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2153</v>
+        <v>2336</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>19679</v>
+        <v>19703</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>17121</v>
+        <v>16812</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>48439</v>
+        <v>47571</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>21667</v>
+        <v>22397</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>72988</v>
+        <v>72205</v>
       </c>
     </row>
     <row r="11">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>12649</v>
+        <v>13093</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>42823</v>
+        <v>42849</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>36774</v>
+        <v>37960</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>72007</v>
+        <v>73263</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>43830</v>
+        <v>44848</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>106551</v>
+        <v>107314</v>
       </c>
     </row>
     <row r="12">
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>16633</v>
+        <v>16917</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10437</v>
+        <v>10713</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>29345</v>
+        <v>29955</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>11761</v>
+        <v>11579</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>51440</v>
+        <v>49535</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6899</v>
+        <v>6258</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>35203</v>
+        <v>36153</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>28258</v>
+        <v>28122</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>47036</v>
+        <v>47451</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>29503</v>
+        <v>29312</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>76678</v>
+        <v>75280</v>
       </c>
     </row>
     <row r="16">
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3024</v>
+        <v>3118</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10885</v>
+        <v>10843</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>11042</v>
+        <v>10685</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>17248</v>
+        <v>17041</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>17279</v>
+        <v>17260</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>32273</v>
+        <v>31480</v>
       </c>
     </row>
     <row r="19">
@@ -1873,22 +1873,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>15606</v>
+        <v>13940</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>29907</v>
+        <v>30505</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>28650</v>
+        <v>28350</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>32040</v>
+        <v>31792</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>36558</v>
+        <v>39078</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>57436</v>
+        <v>57703</v>
       </c>
     </row>
     <row r="20">
@@ -1955,22 +1955,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3713</v>
+        <v>3074</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1120</v>
+        <v>1104</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>13750</v>
+        <v>13917</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>6835</v>
+        <v>6948</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>19370</v>
+        <v>20357</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>9355</v>
+        <v>9391</v>
       </c>
     </row>
     <row r="23">
@@ -1981,22 +1981,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>14283</v>
+        <v>14673</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>7437</v>
+        <v>7100</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>31528</v>
+        <v>31546</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>14753</v>
+        <v>15064</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>41332</v>
+        <v>41177</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>19558</v>
+        <v>19463</v>
       </c>
     </row>
     <row r="24">
@@ -2063,22 +2063,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>839</v>
+        <v>1131</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>14021</v>
+        <v>13884</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>16451</v>
+        <v>16868</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>16604</v>
+        <v>16611</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>20327</v>
+        <v>20534</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>34261</v>
+        <v>33717</v>
       </c>
     </row>
     <row r="27">
@@ -2089,22 +2089,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>9770</v>
+        <v>9578</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>28238</v>
+        <v>29409</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>36255</v>
+        <v>36607</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>29503</v>
+        <v>29991</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>41544</v>
+        <v>44076</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>53197</v>
+        <v>52759</v>
       </c>
     </row>
     <row r="28">
@@ -2171,22 +2171,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>5586</v>
+        <v>5529</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>31136</v>
+        <v>30011</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>31584</v>
+        <v>31904</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>59466</v>
+        <v>59065</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>41551</v>
+        <v>42498</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>97768</v>
+        <v>97308</v>
       </c>
     </row>
     <row r="31">
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>21679</v>
+        <v>20366</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>61215</v>
+        <v>59822</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>58905</v>
+        <v>57741</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>87804</v>
+        <v>87535</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>73029</v>
+        <v>71693</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>139532</v>
+        <v>137471</v>
       </c>
     </row>
     <row r="32">
@@ -2279,22 +2279,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>14340</v>
+        <v>15026</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>16653</v>
+        <v>16110</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>48261</v>
+        <v>49240</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>55658</v>
+        <v>54781</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>69254</v>
+        <v>68472</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>76167</v>
+        <v>76136</v>
       </c>
     </row>
     <row r="35">
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>32405</v>
+        <v>33036</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>35128</v>
+        <v>36923</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>83678</v>
+        <v>85296</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>82721</v>
+        <v>81937</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>107328</v>
+        <v>107725</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>108894</v>
+        <v>109138</v>
       </c>
     </row>
     <row r="36">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>55300</v>
+        <v>55482</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>143732</v>
+        <v>144473</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>216223</v>
+        <v>211960</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>276900</v>
+        <v>282691</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>277245</v>
+        <v>277197</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>439151</v>
+        <v>437798</v>
       </c>
     </row>
     <row r="39">
@@ -2413,22 +2413,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>88452</v>
+        <v>90658</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>198125</v>
+        <v>197316</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>277627</v>
+        <v>278143</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>333583</v>
+        <v>336148</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>351131</v>
+        <v>351598</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>515779</v>
+        <v>514037</v>
       </c>
     </row>
     <row r="40">
